--- a/Helpers/ParallelVsSequential.xlsx
+++ b/Helpers/ParallelVsSequential.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoeMamma PC\Desktop\University\Praca Inż\HardwareManager\Helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7967228-4A4E-4F67-871D-36D01DB93877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC47FCD-7424-4609-B581-C33D6AE47801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>Machine #1</t>
   </si>
@@ -113,15 +113,6 @@
   <si>
     <t>Iteration</t>
   </si>
-  <si>
-    <t>Sample 1</t>
-  </si>
-  <si>
-    <t>Sample 2</t>
-  </si>
-  <si>
-    <t>Sample 3</t>
-  </si>
 </sst>
 </file>
 
@@ -176,42 +167,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -305,54 +265,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2341,6 +2304,614 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Linux -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> sequential vs parallel</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Parallel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Usage - Linux'!$B$4:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.3082758999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0457984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0114681000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0108893999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0105232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0110805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0121701999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0113087000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0590299000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0134209999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0142994999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0202954</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0113494999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0100638</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.011711</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0115839</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0109653999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0103091</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0112174</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0106170000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0113626</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0075004000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0112464000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0113190000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0118187999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0114635000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0103283999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0104704</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0118157000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0108459000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB8F-450D-B6EC-83B2FE37F4DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sequential</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Usage - Linux'!$D$4:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>3.0915561999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0736213000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0293445000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0276296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0287611999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0269770999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0324391999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0282537</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0279913000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0520672000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0310060999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0322460000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0246947999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0277587000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0323535000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0292347999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0267278000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0277775999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0289103000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0285389</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0271745999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.0286506000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0278377000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0286333000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0277535000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0316375999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0287001999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0284800999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0292317</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.0267431999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB8F-450D-B6EC-83B2FE37F4DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1103382160"/>
+        <c:axId val="1103378000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1103382160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1103378000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1103378000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Execution time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1103382160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2461,6 +3032,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3494,6 +4105,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4118,6 +5245,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>433386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6B46E3-CFAB-F2C7-9D2A-7652D3B58D03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4392,7 +5560,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D34"/>
+      <selection activeCell="K3" sqref="K3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4414,48 +5582,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="8"/>
       <c r="N2" t="s">
         <v>10</v>
       </c>
@@ -4465,30 +5633,30 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="8"/>
       <c r="N3" t="s">
         <v>11</v>
       </c>
@@ -4498,40 +5666,40 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="N4" t="s">
@@ -4543,1185 +5711,1185 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>5.4584200999999997</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>3.2957204</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>1.9407146</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="12">
         <v>1.3771836</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="10">
         <v>1</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="10">
         <v>7.4728025999999996</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="10">
         <v>1</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="11">
         <v>1.6574773</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>3.1871E-3</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>6.2385000000000001E-3</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="10">
         <v>2</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>6.8351000000000002E-3</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>2</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="12">
         <v>3.2127000000000002E-3</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="10">
         <v>2</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="10">
         <v>4.7102000000000003E-3</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="10">
         <v>2</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="11">
         <v>4.5455000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>3.0967999999999998E-3</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <v>3</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>5.2287000000000002E-3</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="10">
         <v>3</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="11">
         <v>5.7445999999999999E-3</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>3</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="12">
         <v>3.2390000000000001E-3</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="10">
         <v>3</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="10">
         <v>5.5947000000000002E-3</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="10">
         <v>3</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="11">
         <v>4.5881000000000003E-3</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>3.238E-3</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>4</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>5.7390999999999996E-3</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="10">
         <v>4</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="11">
         <v>5.5247999999999998E-3</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>4</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="12">
         <v>3.1819000000000001E-3</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="10">
         <v>4</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="10">
         <v>5.4643000000000001E-3</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="10">
         <v>4</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="11">
         <v>4.6404000000000003E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>3.2845000000000001E-3</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="10">
         <v>5</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="10">
         <v>7.1754999999999996E-3</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="10">
         <v>5</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="11">
         <v>6.0550999999999999E-3</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>5</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="12">
         <v>3.2521E-3</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="10">
         <v>5</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="10">
         <v>6.7962999999999999E-3</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="10">
         <v>5</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="11">
         <v>4.5956E-3</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="12">
         <v>3.1180000000000001E-3</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>6</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <v>5.4761999999999996E-3</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="10">
         <v>6</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="11">
         <v>9.0287000000000006E-3</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <v>6</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="12">
         <v>3.2604000000000001E-3</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="10">
         <v>6</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="10">
         <v>5.7434000000000001E-3</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="10">
         <v>6</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="11">
         <v>7.4075E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>7</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>3.4313999999999998E-3</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="10">
         <v>7</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="10">
         <v>6.6484999999999999E-3</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="10">
         <v>7</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="11">
         <v>6.1799000000000003E-3</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>7</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="12">
         <v>3.4136000000000001E-3</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="10">
         <v>7</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="10">
         <v>5.4806000000000004E-3</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="10">
         <v>7</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="11">
         <v>5.8858000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>3.1903999999999999E-3</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="10">
         <v>8</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="10">
         <v>1.0041599999999999E-2</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="10">
         <v>8</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="11">
         <v>5.4755000000000003E-3</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>8</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="12">
         <v>3.2854999999999998E-3</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="10">
         <v>8</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="10">
         <v>5.3997000000000003E-3</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="10">
         <v>8</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="11">
         <v>4.6087000000000003E-3</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <v>3.0208000000000001E-3</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="10">
         <v>9</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="10">
         <v>7.2557000000000003E-3</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="10">
         <v>9</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="11">
         <v>5.6942E-3</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>9</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="12">
         <v>3.2169E-3</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="10">
         <v>9</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="10">
         <v>5.1282999999999997E-3</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="10">
         <v>9</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="11">
         <v>4.7961999999999996E-3</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>3.4401000000000002E-3</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="10">
         <v>10</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="10">
         <v>5.2135000000000003E-3</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="10">
         <v>10</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="11">
         <v>6.2392000000000003E-3</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <v>10</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="12">
         <v>3.1497000000000001E-3</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="10">
         <v>10</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="10">
         <v>5.9779000000000004E-3</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="10">
         <v>10</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="11">
         <v>4.7358000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <v>3.2065000000000001E-3</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="10">
         <v>11</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="10">
         <v>5.2963000000000003E-3</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="10">
         <v>11</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="11">
         <v>5.5037999999999997E-3</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <v>11</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="12">
         <v>3.1575000000000002E-3</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="10">
         <v>11</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="10">
         <v>5.2719000000000004E-3</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="10">
         <v>11</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="11">
         <v>5.1377000000000003E-3</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>3.3578000000000002E-3</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="10">
         <v>12</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="10">
         <v>5.5376999999999996E-3</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="10">
         <v>12</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="11">
         <v>5.5886E-3</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="10">
         <v>12</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="12">
         <v>3.0496999999999998E-3</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="10">
         <v>12</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="10">
         <v>6.4342000000000002E-3</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="10">
         <v>12</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="11">
         <v>4.5170999999999996E-3</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="12">
         <v>4.5685999999999999E-3</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="10">
         <v>13</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="10">
         <v>5.2602999999999999E-3</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="10">
         <v>13</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="11">
         <v>7.3930999999999997E-3</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="10">
         <v>13</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="12">
         <v>4.3769999999999998E-3</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="10">
         <v>13</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="10">
         <v>5.0699999999999999E-3</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="10">
         <v>13</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="11">
         <v>8.2740000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="12">
         <v>3.1161000000000001E-3</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="10">
         <v>14</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="10">
         <v>4.7347999999999999E-3</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="10">
         <v>14</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="11">
         <v>5.0353000000000004E-3</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="10">
         <v>14</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="12">
         <v>3.042E-3</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="10">
         <v>14</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="10">
         <v>5.1091000000000001E-3</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="10">
         <v>14</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="11">
         <v>5.6122000000000003E-3</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="12">
         <v>3.3882999999999999E-3</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="10">
         <v>15</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>4.5986000000000004E-3</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="10">
         <v>15</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="11">
         <v>5.9324E-3</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="10">
         <v>15</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="12">
         <v>3.2014999999999999E-3</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="10">
         <v>15</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="10">
         <v>5.7026000000000004E-3</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="10">
         <v>15</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="11">
         <v>4.6940000000000003E-3</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="9">
         <v>16</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>3.2249000000000002E-3</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="10">
         <v>16</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="10">
         <v>5.7239999999999999E-3</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="10">
         <v>16</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="11">
         <v>5.9810999999999996E-3</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="10">
         <v>16</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="12">
         <v>3.3303999999999999E-3</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="10">
         <v>16</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="10">
         <v>5.6858000000000004E-3</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="10">
         <v>16</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="11">
         <v>6.0990000000000003E-3</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="9">
         <v>17</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="12">
         <v>3.2899000000000001E-3</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="10">
         <v>17</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="10">
         <v>5.1615000000000003E-3</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="10">
         <v>17</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="11">
         <v>5.5744999999999996E-3</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="10">
         <v>17</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="12">
         <v>3.1009000000000002E-3</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="10">
         <v>17</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="10">
         <v>5.4606000000000003E-3</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="10">
         <v>17</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="11">
         <v>4.261E-3</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="9">
         <v>18</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="12">
         <v>3.0985000000000001E-3</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="10">
         <v>18</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="10">
         <v>7.038E-3</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="10">
         <v>18</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="11">
         <v>6.3886999999999998E-3</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="10">
         <v>18</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="12">
         <v>3.0596999999999998E-3</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="10">
         <v>18</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="10">
         <v>5.0682000000000001E-3</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="10">
         <v>18</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="11">
         <v>4.2576000000000003E-3</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="9">
         <v>19</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="12">
         <v>3.1578000000000001E-3</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="10">
         <v>19</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="10">
         <v>5.2835E-3</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="10">
         <v>19</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="11">
         <v>5.7891000000000001E-3</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="10">
         <v>19</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="12">
         <v>3.3348000000000002E-3</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="10">
         <v>19</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="10">
         <v>4.8973999999999997E-3</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="10">
         <v>19</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="11">
         <v>4.6338999999999998E-3</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="9">
         <v>20</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="12">
         <v>2.967E-3</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="10">
         <v>20</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="10">
         <v>5.3956000000000004E-3</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="10">
         <v>20</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="11">
         <v>6.5401000000000001E-3</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="10">
         <v>20</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="12">
         <v>3.0531999999999998E-3</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="10">
         <v>20</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="10">
         <v>5.0571000000000001E-3</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="10">
         <v>20</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="11">
         <v>4.3569999999999998E-3</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="9">
         <v>21</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="12">
         <v>3.1361000000000002E-3</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="10">
         <v>21</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="10">
         <v>1.0414400000000001E-2</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="10">
         <v>21</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="11">
         <v>5.0680999999999999E-3</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="10">
         <v>21</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="12">
         <v>3.0290999999999998E-3</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="10">
         <v>21</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="10">
         <v>5.0765999999999997E-3</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="10">
         <v>21</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="11">
         <v>4.7758999999999996E-3</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="9">
         <v>22</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="12">
         <v>3.0349999999999999E-3</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="10">
         <v>22</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="10">
         <v>5.0591000000000004E-3</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="10">
         <v>22</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="11">
         <v>5.4365000000000004E-3</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="10">
         <v>22</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="12">
         <v>3.0279E-3</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="10">
         <v>22</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="10">
         <v>4.8561000000000003E-3</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="10">
         <v>22</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="11">
         <v>4.444E-3</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27" s="9">
         <v>23</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="12">
         <v>3.1589000000000001E-3</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="10">
         <v>23</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="10">
         <v>5.1605000000000002E-3</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="10">
         <v>23</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="11">
         <v>7.901E-3</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="10">
         <v>23</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="12">
         <v>3.0439999999999998E-3</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="10">
         <v>23</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="10">
         <v>5.1326000000000002E-3</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="10">
         <v>23</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="11">
         <v>4.2566000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="A28" s="9">
         <v>24</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="12">
         <v>3.0750999999999999E-3</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="10">
         <v>24</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="10">
         <v>4.9626000000000002E-3</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="10">
         <v>24</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="11">
         <v>5.1050000000000002E-3</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="10">
         <v>24</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="12">
         <v>3.0481000000000002E-3</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="10">
         <v>24</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="10">
         <v>5.0514999999999996E-3</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="10">
         <v>24</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="11">
         <v>4.6398000000000003E-3</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="A29" s="9">
         <v>25</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="12">
         <v>3.0929999999999998E-3</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="10">
         <v>25</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="10">
         <v>5.2582000000000002E-3</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="10">
         <v>25</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="11">
         <v>5.4130000000000003E-3</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="10">
         <v>25</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="12">
         <v>3.1056999999999999E-3</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="10">
         <v>25</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="10">
         <v>5.1266000000000003E-3</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="10">
         <v>25</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="11">
         <v>4.5913000000000004E-3</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+      <c r="A30" s="9">
         <v>26</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="12">
         <v>3.0636999999999999E-3</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="10">
         <v>26</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="10">
         <v>5.5319999999999996E-3</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="10">
         <v>26</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="11">
         <v>5.4114000000000002E-3</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="10">
         <v>26</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="12">
         <v>3.0430000000000001E-3</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="10">
         <v>26</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="10">
         <v>5.0169000000000004E-3</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="10">
         <v>26</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="11">
         <v>4.4993000000000003E-3</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31" s="9">
         <v>27</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="12">
         <v>2.9900999999999999E-3</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="10">
         <v>27</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="10">
         <v>4.9156E-3</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="10">
         <v>27</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="11">
         <v>5.9627999999999999E-3</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="10">
         <v>27</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="12">
         <v>3.3186000000000001E-3</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="10">
         <v>27</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="10">
         <v>6.7435000000000004E-3</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="10">
         <v>27</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="11">
         <v>4.8164000000000002E-3</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="A32" s="9">
         <v>28</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="12">
         <v>3.0479999999999999E-3</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="10">
         <v>28</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="10">
         <v>5.2833999999999997E-3</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="10">
         <v>28</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="11">
         <v>7.8592000000000002E-3</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="10">
         <v>28</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="12">
         <v>3.0206999999999999E-3</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="10">
         <v>28</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="10">
         <v>5.0263E-3</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="10">
         <v>28</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="11">
         <v>4.2115E-3</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+      <c r="A33" s="9">
         <v>29</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="12">
         <v>4.5363000000000001E-3</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="10">
         <v>29</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="10">
         <v>1.00383E-2</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="10">
         <v>29</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="11">
         <v>6.5421999999999998E-3</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="10">
         <v>29</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="12">
         <v>3.0760000000000002E-3</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="10">
         <v>29</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="10">
         <v>5.0042999999999997E-3</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="10">
         <v>29</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="11">
         <v>4.3454000000000001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="12">
+      <c r="A34" s="13">
         <v>30</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="14">
         <v>3.3547999999999998E-3</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="15">
         <v>30</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="15">
         <v>5.1298999999999997E-3</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="15">
         <v>30</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="16">
         <v>5.4191999999999999E-3</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="15">
         <v>30</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="14">
         <v>3.039E-3</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="15">
         <v>30</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="15">
         <v>4.8179E-3</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="15">
         <v>30</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="16">
         <v>4.5274E-3</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="12">
         <f>AVERAGE(B6:B34)</f>
         <v>3.2714999999999997E-3</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="10">
         <f>AVERAGE(D6:D34)</f>
         <v>6.0276413793103447E-3</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="10">
         <f>AVERAGE(F6:F34)</f>
         <v>6.0904206896551733E-3</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="12">
         <f>AVERAGE(H6:H34)</f>
         <v>3.195537931034483E-3</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="10">
         <f>AVERAGE(J6:J34)</f>
         <v>5.3760206896551728E-3</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="10">
         <f>AVERAGE(L6:L34)</f>
         <v>4.9225758620689659E-3</v>
       </c>
@@ -5754,919 +6922,703 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
+      <c r="A1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="16" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="7"/>
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1.3082758999999999</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>3.0915561999999999</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1.0457984</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>3.0736213000000001</v>
+      </c>
+      <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
-        <v>2</v>
-      </c>
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1.0114681000000001</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3.0293445000000001</v>
+      </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="8">
-        <v>2</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9">
-        <v>2</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9">
-        <v>2</v>
-      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
-        <v>3</v>
-      </c>
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1.0108893999999999</v>
+      </c>
+      <c r="C7" s="10">
+        <v>4</v>
+      </c>
+      <c r="D7" s="11">
+        <v>3.0276296</v>
+      </c>
+      <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="8">
-        <v>3</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9">
-        <v>3</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9">
-        <v>3</v>
-      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9">
-        <v>4</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
-        <v>4</v>
-      </c>
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1.0105232</v>
+      </c>
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3.0287611999999999</v>
+      </c>
+      <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="8">
-        <v>4</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9">
-        <v>4</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9">
-        <v>4</v>
-      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
-        <v>5</v>
-      </c>
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1.0110805</v>
+      </c>
+      <c r="C9" s="10">
+        <v>6</v>
+      </c>
+      <c r="D9" s="11">
+        <v>3.0269770999999999</v>
+      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="8">
-        <v>5</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9">
-        <v>5</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9">
-        <v>5</v>
-      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>6</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
-        <v>6</v>
-      </c>
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1.0121701999999999</v>
+      </c>
+      <c r="C10" s="10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11">
+        <v>3.0324391999999998</v>
+      </c>
+      <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="8">
-        <v>6</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9">
-        <v>6</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9">
-        <v>6</v>
-      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>7</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
-        <v>7</v>
-      </c>
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1.0113087000000001</v>
+      </c>
+      <c r="C11" s="10">
+        <v>8</v>
+      </c>
+      <c r="D11" s="11">
+        <v>3.0282537</v>
+      </c>
+      <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="8">
-        <v>7</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9">
-        <v>7</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9">
-        <v>7</v>
-      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>8</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9">
-        <v>8</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9">
-        <v>8</v>
-      </c>
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1.0590299000000001</v>
+      </c>
+      <c r="C12" s="10">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11">
+        <v>3.0279913000000001</v>
+      </c>
+      <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="8">
-        <v>8</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9">
-        <v>8</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9">
-        <v>8</v>
-      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>9</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9">
-        <v>9</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
-        <v>9</v>
-      </c>
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1.0134209999999999</v>
+      </c>
+      <c r="C13" s="10">
+        <v>10</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3.0520672000000002</v>
+      </c>
+      <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="8">
-        <v>9</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9">
-        <v>9</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9">
-        <v>9</v>
-      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9">
-        <v>10</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>10</v>
-      </c>
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1.0142994999999999</v>
+      </c>
+      <c r="C14" s="10">
+        <v>11</v>
+      </c>
+      <c r="D14" s="11">
+        <v>3.0310060999999999</v>
+      </c>
+      <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="8">
-        <v>10</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9">
-        <v>10</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9">
-        <v>10</v>
-      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9">
-        <v>11</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9">
-        <v>11</v>
-      </c>
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1.0202954</v>
+      </c>
+      <c r="C15" s="10">
+        <v>12</v>
+      </c>
+      <c r="D15" s="11">
+        <v>3.0322460000000002</v>
+      </c>
+      <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="8">
-        <v>11</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9">
-        <v>11</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9">
-        <v>11</v>
-      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>12</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9">
-        <v>12</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9">
-        <v>12</v>
-      </c>
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1.0113494999999999</v>
+      </c>
+      <c r="C16" s="10">
+        <v>13</v>
+      </c>
+      <c r="D16" s="11">
+        <v>3.0246947999999998</v>
+      </c>
+      <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="8">
-        <v>12</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9">
-        <v>12</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9">
-        <v>12</v>
-      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>13</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9">
-        <v>13</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9">
-        <v>13</v>
-      </c>
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1.0100638</v>
+      </c>
+      <c r="C17" s="10">
+        <v>14</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3.0277587000000001</v>
+      </c>
+      <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="8">
-        <v>13</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9">
-        <v>13</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9">
-        <v>13</v>
-      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>14</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9">
-        <v>14</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>14</v>
-      </c>
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1.011711</v>
+      </c>
+      <c r="C18" s="10">
+        <v>15</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3.0323535000000001</v>
+      </c>
+      <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="8">
-        <v>14</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9">
-        <v>14</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9">
-        <v>14</v>
-      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>15</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9">
-        <v>15</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9">
-        <v>15</v>
-      </c>
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1.0115839</v>
+      </c>
+      <c r="C19" s="10">
+        <v>16</v>
+      </c>
+      <c r="D19" s="11">
+        <v>3.0292347999999998</v>
+      </c>
+      <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="8">
-        <v>15</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9">
-        <v>15</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9">
-        <v>15</v>
-      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
       <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>16</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9">
-        <v>16</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9">
-        <v>16</v>
-      </c>
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1.0109653999999999</v>
+      </c>
+      <c r="C20" s="10">
+        <v>17</v>
+      </c>
+      <c r="D20" s="11">
+        <v>3.0267278000000002</v>
+      </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="8">
-        <v>16</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9">
-        <v>16</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9">
-        <v>16</v>
-      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>17</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9">
-        <v>17</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
-        <v>17</v>
-      </c>
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1.0103091</v>
+      </c>
+      <c r="C21" s="10">
+        <v>18</v>
+      </c>
+      <c r="D21" s="11">
+        <v>3.0277775999999998</v>
+      </c>
+      <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="8">
-        <v>17</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9">
-        <v>17</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9">
-        <v>17</v>
-      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>18</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>18</v>
-      </c>
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1.0112174</v>
+      </c>
+      <c r="C22" s="10">
+        <v>19</v>
+      </c>
+      <c r="D22" s="11">
+        <v>3.0289103000000002</v>
+      </c>
+      <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="8">
-        <v>18</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9">
-        <v>18</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9">
-        <v>18</v>
-      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>19</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9">
-        <v>19</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9">
-        <v>19</v>
-      </c>
+      <c r="A23" s="9">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1.0106170000000001</v>
+      </c>
+      <c r="C23" s="10">
+        <v>20</v>
+      </c>
+      <c r="D23" s="11">
+        <v>3.0285389</v>
+      </c>
+      <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="8">
-        <v>19</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9">
-        <v>19</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9">
-        <v>19</v>
-      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>20</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9">
-        <v>20</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9">
-        <v>20</v>
-      </c>
+      <c r="A24" s="9">
+        <v>21</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1.0113626</v>
+      </c>
+      <c r="C24" s="10">
+        <v>21</v>
+      </c>
+      <c r="D24" s="11">
+        <v>3.0271745999999999</v>
+      </c>
+      <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="8">
-        <v>20</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9">
-        <v>20</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9">
-        <v>20</v>
-      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>21</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9">
-        <v>21</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9">
-        <v>21</v>
-      </c>
+      <c r="A25" s="9">
+        <v>22</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1.0075004000000001</v>
+      </c>
+      <c r="C25" s="10">
+        <v>22</v>
+      </c>
+      <c r="D25" s="11">
+        <v>3.0286506000000002</v>
+      </c>
+      <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="8">
-        <v>21</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9">
-        <v>21</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9">
-        <v>21</v>
-      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>22</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9">
-        <v>22</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9">
-        <v>22</v>
-      </c>
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1.0112464000000001</v>
+      </c>
+      <c r="C26" s="10">
+        <v>23</v>
+      </c>
+      <c r="D26" s="11">
+        <v>3.0278377000000001</v>
+      </c>
+      <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="8">
-        <v>22</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9">
-        <v>22</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9">
-        <v>22</v>
-      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>23</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9">
-        <v>23</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9">
-        <v>23</v>
-      </c>
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1.0113190000000001</v>
+      </c>
+      <c r="C27" s="10">
+        <v>24</v>
+      </c>
+      <c r="D27" s="11">
+        <v>3.0286333000000001</v>
+      </c>
+      <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="8">
-        <v>23</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9">
-        <v>23</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9">
-        <v>23</v>
-      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
       <c r="L27" s="10"/>
     </row>
     <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>24</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9">
-        <v>24</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9">
-        <v>24</v>
-      </c>
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1.0118187999999999</v>
+      </c>
+      <c r="C28" s="10">
+        <v>25</v>
+      </c>
+      <c r="D28" s="11">
+        <v>3.0277535000000002</v>
+      </c>
+      <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="8">
-        <v>24</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9">
-        <v>24</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9">
-        <v>24</v>
-      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
       <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>25</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9">
-        <v>25</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9">
-        <v>25</v>
-      </c>
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1.0114635000000001</v>
+      </c>
+      <c r="C29" s="10">
+        <v>26</v>
+      </c>
+      <c r="D29" s="11">
+        <v>3.0316375999999998</v>
+      </c>
+      <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="8">
-        <v>25</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9">
-        <v>25</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9">
-        <v>25</v>
-      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>26</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9">
-        <v>26</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9">
-        <v>26</v>
-      </c>
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="11">
+        <v>1.0103283999999999</v>
+      </c>
+      <c r="C30" s="10">
+        <v>27</v>
+      </c>
+      <c r="D30" s="11">
+        <v>3.0287001999999998</v>
+      </c>
+      <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="8">
-        <v>26</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9">
-        <v>26</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9">
-        <v>26</v>
-      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>27</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9">
-        <v>27</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9">
-        <v>27</v>
-      </c>
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="11">
+        <v>1.0104704</v>
+      </c>
+      <c r="C31" s="10">
+        <v>28</v>
+      </c>
+      <c r="D31" s="11">
+        <v>3.0284800999999999</v>
+      </c>
+      <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="8">
-        <v>27</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9">
-        <v>27</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9">
-        <v>27</v>
-      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>28</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9">
-        <v>28</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9">
-        <v>28</v>
-      </c>
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="11">
+        <v>1.0118157000000001</v>
+      </c>
+      <c r="C32" s="10">
+        <v>29</v>
+      </c>
+      <c r="D32" s="11">
+        <v>3.0292317</v>
+      </c>
+      <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="8">
-        <v>28</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9">
-        <v>28</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9">
-        <v>28</v>
-      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
-        <v>29</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9">
-        <v>29</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9">
-        <v>29</v>
-      </c>
+    <row r="33" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="13">
+        <v>30</v>
+      </c>
+      <c r="B33" s="16">
+        <v>1.0108459000000001</v>
+      </c>
+      <c r="C33" s="15">
+        <v>30</v>
+      </c>
+      <c r="D33" s="16">
+        <v>3.0267431999999999</v>
+      </c>
+      <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="8">
-        <v>29</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9">
-        <v>29</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9">
-        <v>29</v>
-      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="12">
-        <v>30</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14">
-        <v>30</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14">
-        <v>30</v>
-      </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="12">
-        <v>30</v>
-      </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14">
-        <v>30</v>
-      </c>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14">
-        <v>30</v>
-      </c>
-      <c r="L34" s="15"/>
+    <row r="34" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
     </row>
     <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A2:F2"/>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>